--- a/data/关西9日自由行.xlsx
+++ b/data/关西9日自由行.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="873">
   <si>
     <t>通天阁+新世界商店街</t>
     <phoneticPr fontId="4"/>
@@ -8855,11 +8855,99 @@
   <si>
     <t>行程规划</t>
   </si>
+  <si>
+    <t xml:space="preserve">9:00以前 </t>
+  </si>
+  <si>
+    <r>
+      <t>9:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30以前 </t>
+  </si>
+  <si>
+    <r>
+      <t>12:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30以前 </t>
+  </si>
+  <si>
+    <t>17:00以前</t>
+  </si>
+  <si>
+    <t>21:00以前</t>
+  </si>
+  <si>
+    <t>11:00以前</t>
+  </si>
+  <si>
+    <t>13:00以前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:30以前 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00以前 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:30以前 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:30以前 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00以前 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00以前 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9681,9 +9769,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9851,6 +9936,8 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9887,8 +9974,9 @@
     <xf numFmtId="0" fontId="71" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="標準 2" xfId="1"/>
@@ -10361,30 +10449,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="124" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="124" t="s">
         <v>850</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="124" t="s">
         <v>853</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="124" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="123" t="s">
         <v>848</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="123" t="s">
         <v>849</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="123" t="s">
         <v>854</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="123" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10458,16 +10546,16 @@
       <c r="A5" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>555</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>517</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>478</v>
       </c>
     </row>
@@ -10523,13 +10611,13 @@
       <c r="C9" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>556</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10543,13 +10631,13 @@
       <c r="C10" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>200</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="73" t="s">
         <v>557</v>
       </c>
     </row>
@@ -10563,13 +10651,13 @@
       <c r="C11" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="77" t="s">
         <v>302</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="77" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10589,7 +10677,7 @@
       <c r="E12" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="73" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10603,10 +10691,10 @@
       <c r="C13" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="78" t="s">
         <v>554</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -10854,10 +10942,10 @@
       <c r="A3" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>481</v>
       </c>
     </row>
@@ -11008,928 +11096,928 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="103"/>
-    <col min="2" max="2" width="11.5703125" style="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="103" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="103" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.42578125" style="103" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="103"/>
+    <col min="1" max="1" width="9" style="102"/>
+    <col min="2" max="2" width="11.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.42578125" style="102" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>728</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>726</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>663</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="18">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="114" t="s">
         <v>729</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="127" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="128" t="s">
         <v>664</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="105"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>730</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="111" t="s">
         <v>665</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="110" t="s">
         <v>666</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="110" t="s">
         <v>667</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="112">
         <v>45</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="112">
         <v>55</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="112" t="s">
         <v>670</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="112">
         <v>10</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="112">
         <v>15</v>
       </c>
-      <c r="F6" s="105"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="112">
         <v>40</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="112">
         <v>45</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="112" t="s">
         <v>670</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="112">
         <v>5</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="112">
         <v>10</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="104"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>672</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="128" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="129" t="s">
         <v>731</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
     </row>
     <row r="11" spans="1:6" ht="18">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="114" t="s">
         <v>730</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>732</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>673</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="110" t="s">
         <v>674</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="110" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="112">
         <v>105</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="112">
         <v>165</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="112">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="112" t="s">
         <v>677</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="112">
         <v>135</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="112">
         <v>210</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="112">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="112" t="s">
         <v>678</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="112">
         <v>180</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="112">
         <v>285</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="112">
         <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="112" t="s">
         <v>679</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="112">
         <v>210</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="112">
         <v>335</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="112">
         <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="112" t="s">
         <v>680</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="112">
         <v>255</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="112">
         <v>405</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="112">
         <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="112" t="s">
         <v>681</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="112">
         <v>285</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="112">
         <v>455</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="112">
         <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="112" t="s">
         <v>682</v>
       </c>
-      <c r="D18" s="113">
+      <c r="D18" s="112">
         <v>330</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="112">
         <v>525</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="112">
         <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="112" t="s">
         <v>683</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="112" t="s">
         <v>684</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>685</v>
       </c>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="112" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="112" t="s">
         <v>687</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="112">
         <v>945</v>
       </c>
-      <c r="E20" s="114">
+      <c r="E20" s="113">
         <v>1550</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="113">
         <v>2250</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="D21" s="113">
+      <c r="D21" s="112">
         <v>85</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="112">
         <v>135</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="112">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>677</v>
       </c>
-      <c r="D22" s="113">
+      <c r="D22" s="112">
         <v>105</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="112">
         <v>170</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="112">
         <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="112" t="s">
         <v>678</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="112">
         <v>145</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="112">
         <v>230</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="112">
         <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="112" t="s">
         <v>679</v>
       </c>
-      <c r="D24" s="113">
+      <c r="D24" s="112">
         <v>170</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="112">
         <v>265</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="112" t="s">
         <v>680</v>
       </c>
-      <c r="D25" s="113">
+      <c r="D25" s="112">
         <v>200</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="112">
         <v>330</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="112" t="s">
         <v>681</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="112">
         <v>230</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="112">
         <v>365</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="112" t="s">
         <v>682</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="112">
         <v>265</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="112">
         <v>420</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="90">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="112" t="s">
         <v>688</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="112" t="s">
         <v>689</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>690</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="112" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="112" t="s">
         <v>687</v>
       </c>
-      <c r="D29" s="113">
+      <c r="D29" s="112">
         <v>760</v>
       </c>
-      <c r="E29" s="114">
+      <c r="E29" s="113">
         <v>1235</v>
       </c>
-      <c r="F29" s="114">
+      <c r="F29" s="113">
         <v>1800</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="105" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="105" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="105" t="s">
         <v>694</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="B32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
     </row>
     <row r="34" spans="1:8" ht="18">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="106" t="s">
         <v>727</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="132" t="s">
         <v>695</v>
       </c>
-      <c r="C35" s="133" t="s">
+      <c r="C35" s="134" t="s">
         <v>696</v>
       </c>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
     </row>
     <row r="36" spans="1:8" ht="45">
-      <c r="B36" s="132"/>
-      <c r="C36" s="111" t="s">
+      <c r="B36" s="133"/>
+      <c r="C36" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="110" t="s">
         <v>698</v>
       </c>
-      <c r="E36" s="111" t="s">
+      <c r="E36" s="110" t="s">
         <v>699</v>
       </c>
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="110" t="s">
         <v>700</v>
       </c>
-      <c r="G36" s="111" t="s">
+      <c r="G36" s="110" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45">
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="112" t="s">
         <v>702</v>
       </c>
-      <c r="C37" s="114">
+      <c r="C37" s="113">
         <v>200000</v>
       </c>
-      <c r="D37" s="114">
+      <c r="D37" s="113">
         <v>300000</v>
       </c>
-      <c r="E37" s="114">
+      <c r="E37" s="113">
         <v>200000</v>
       </c>
-      <c r="F37" s="114">
+      <c r="F37" s="113">
         <v>300000</v>
       </c>
-      <c r="G37" s="114">
+      <c r="G37" s="113">
         <v>600000</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30">
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="C38" s="114">
+      <c r="C38" s="113">
         <v>50000</v>
       </c>
-      <c r="D38" s="114">
+      <c r="D38" s="113">
         <v>80000</v>
       </c>
-      <c r="E38" s="114">
+      <c r="E38" s="113">
         <v>100000</v>
       </c>
-      <c r="F38" s="114">
+      <c r="F38" s="113">
         <v>200000</v>
       </c>
-      <c r="G38" s="114">
+      <c r="G38" s="113">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30">
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="112" t="s">
         <v>704</v>
       </c>
-      <c r="C39" s="114">
+      <c r="C39" s="113">
         <v>400000</v>
       </c>
-      <c r="D39" s="114">
+      <c r="D39" s="113">
         <v>400000</v>
       </c>
-      <c r="E39" s="114">
+      <c r="E39" s="113">
         <v>500000</v>
       </c>
-      <c r="F39" s="114">
+      <c r="F39" s="113">
         <v>750000</v>
       </c>
-      <c r="G39" s="113" t="s">
+      <c r="G39" s="112" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="112" t="s">
         <v>706</v>
       </c>
-      <c r="C40" s="114">
+      <c r="C40" s="113">
         <v>80000</v>
       </c>
-      <c r="D40" s="114">
+      <c r="D40" s="113">
         <v>80000</v>
       </c>
-      <c r="E40" s="114">
+      <c r="E40" s="113">
         <v>100000</v>
       </c>
-      <c r="F40" s="114">
+      <c r="F40" s="113">
         <v>150000</v>
       </c>
-      <c r="G40" s="113" t="s">
+      <c r="G40" s="112" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30">
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="C41" s="114">
+      <c r="C41" s="113">
         <v>16000</v>
       </c>
-      <c r="D41" s="114">
+      <c r="D41" s="113">
         <v>16000</v>
       </c>
-      <c r="E41" s="114">
+      <c r="E41" s="113">
         <v>16000</v>
       </c>
-      <c r="F41" s="114">
+      <c r="F41" s="113">
         <v>16000</v>
       </c>
-      <c r="G41" s="114">
+      <c r="G41" s="113">
         <v>16000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="112" t="s">
         <v>708</v>
       </c>
-      <c r="C42" s="114">
+      <c r="C42" s="113">
         <v>2500</v>
       </c>
-      <c r="D42" s="114">
+      <c r="D42" s="113">
         <v>5000</v>
       </c>
-      <c r="E42" s="114">
+      <c r="E42" s="113">
         <v>5000</v>
       </c>
-      <c r="F42" s="114">
+      <c r="F42" s="113">
         <v>7500</v>
       </c>
-      <c r="G42" s="114">
+      <c r="G42" s="113">
         <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45">
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="112" t="s">
         <v>709</v>
       </c>
-      <c r="C43" s="114">
+      <c r="C43" s="113">
         <v>2500</v>
       </c>
-      <c r="D43" s="114">
+      <c r="D43" s="113">
         <v>2500</v>
       </c>
-      <c r="E43" s="114">
+      <c r="E43" s="113">
         <v>2500</v>
       </c>
-      <c r="F43" s="114">
+      <c r="F43" s="113">
         <v>2500</v>
       </c>
-      <c r="G43" s="114">
+      <c r="G43" s="113">
         <v>2500</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="60">
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="112" t="s">
         <v>710</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="112" t="s">
         <v>711</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="112" t="s">
         <v>711</v>
       </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
     </row>
     <row r="45" spans="1:8" ht="30">
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="112" t="s">
         <v>712</v>
       </c>
-      <c r="C45" s="114">
+      <c r="C45" s="113">
         <v>4000</v>
       </c>
-      <c r="D45" s="114">
+      <c r="D45" s="113">
         <v>5000</v>
       </c>
-      <c r="E45" s="114">
+      <c r="E45" s="113">
         <v>5000</v>
       </c>
-      <c r="F45" s="114">
+      <c r="F45" s="113">
         <v>7500</v>
       </c>
-      <c r="G45" s="114">
+      <c r="G45" s="113">
         <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="112" t="s">
         <v>713</v>
       </c>
-      <c r="C46" s="114">
+      <c r="C46" s="113">
         <v>80000</v>
       </c>
-      <c r="D46" s="114">
+      <c r="D46" s="113">
         <v>400000</v>
       </c>
-      <c r="E46" s="114">
+      <c r="E46" s="113">
         <v>800000</v>
       </c>
-      <c r="F46" s="114">
+      <c r="F46" s="113">
         <v>800000</v>
       </c>
-      <c r="G46" s="114">
+      <c r="G46" s="113">
         <v>800000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="60">
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="112" t="s">
         <v>714</v>
       </c>
-      <c r="C47" s="113">
+      <c r="C47" s="112">
         <v>600</v>
       </c>
-      <c r="D47" s="113">
+      <c r="D47" s="112">
         <v>600</v>
       </c>
-      <c r="E47" s="114">
+      <c r="E47" s="113">
         <v>1800</v>
       </c>
-      <c r="F47" s="114">
+      <c r="F47" s="113">
         <v>1800</v>
       </c>
-      <c r="G47" s="114">
+      <c r="G47" s="113">
         <v>1800</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="75">
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="112" t="s">
         <v>715</v>
       </c>
-      <c r="C48" s="114">
+      <c r="C48" s="113">
         <v>2000</v>
       </c>
-      <c r="D48" s="114">
+      <c r="D48" s="113">
         <v>3000</v>
       </c>
-      <c r="E48" s="114">
+      <c r="E48" s="113">
         <v>2000</v>
       </c>
-      <c r="F48" s="114">
+      <c r="F48" s="113">
         <v>3000</v>
       </c>
-      <c r="G48" s="113">
+      <c r="G48" s="112">
         <v>5000</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="60">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="112" t="s">
         <v>716</v>
       </c>
-      <c r="C49" s="114">
+      <c r="C49" s="113">
         <v>12000</v>
       </c>
-      <c r="D49" s="114">
+      <c r="D49" s="113">
         <v>15000</v>
       </c>
-      <c r="E49" s="114">
+      <c r="E49" s="113">
         <v>12000</v>
       </c>
-      <c r="F49" s="114">
+      <c r="F49" s="113">
         <v>15000</v>
       </c>
-      <c r="G49" s="114">
+      <c r="G49" s="113">
         <v>18000</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="45">
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="112" t="s">
         <v>717</v>
       </c>
-      <c r="C50" s="114">
+      <c r="C50" s="113">
         <v>5000</v>
       </c>
-      <c r="D50" s="114">
+      <c r="D50" s="113">
         <v>10000</v>
       </c>
-      <c r="E50" s="114">
+      <c r="E50" s="113">
         <v>5000</v>
       </c>
-      <c r="F50" s="114">
+      <c r="F50" s="113">
         <v>10000</v>
       </c>
-      <c r="G50" s="114">
+      <c r="G50" s="113">
         <v>15000</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="60">
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="112" t="s">
         <v>718</v>
       </c>
-      <c r="C51" s="113" t="s">
+      <c r="C51" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E51" s="114">
+      <c r="E51" s="113">
         <v>200000</v>
       </c>
-      <c r="F51" s="114">
+      <c r="F51" s="113">
         <v>300000</v>
       </c>
-      <c r="G51" s="114">
+      <c r="G51" s="113">
         <v>600000</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="113" t="s">
+      <c r="B52" s="112" t="s">
         <v>720</v>
       </c>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E52" s="114">
+      <c r="E52" s="113">
         <v>1000</v>
       </c>
-      <c r="F52" s="114">
+      <c r="F52" s="113">
         <v>1500</v>
       </c>
-      <c r="G52" s="114">
+      <c r="G52" s="113">
         <v>2000</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="75">
-      <c r="B53" s="113" t="s">
+      <c r="B53" s="112" t="s">
         <v>721</v>
       </c>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E53" s="114">
+      <c r="E53" s="113">
         <v>1000</v>
       </c>
-      <c r="F53" s="114">
+      <c r="F53" s="113">
         <v>1500</v>
       </c>
-      <c r="G53" s="114">
+      <c r="G53" s="113">
         <v>2000</v>
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="113" t="s">
+      <c r="B54" s="112" t="s">
         <v>722</v>
       </c>
-      <c r="C54" s="113" t="s">
+      <c r="C54" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D54" s="113" t="s">
+      <c r="D54" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E54" s="114">
+      <c r="E54" s="113">
         <v>5000</v>
       </c>
-      <c r="F54" s="114">
+      <c r="F54" s="113">
         <v>10000</v>
       </c>
-      <c r="G54" s="114">
+      <c r="G54" s="113">
         <v>15000</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="30">
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="112" t="s">
         <v>723</v>
       </c>
-      <c r="C55" s="113" t="s">
+      <c r="C55" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E55" s="114">
+      <c r="E55" s="113">
         <v>8000</v>
       </c>
-      <c r="F55" s="114">
+      <c r="F55" s="113">
         <v>8000</v>
       </c>
-      <c r="G55" s="114">
+      <c r="G55" s="113">
         <v>8000</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="112" t="s">
         <v>724</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D56" s="113" t="s">
+      <c r="D56" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E56" s="113" t="s">
+      <c r="E56" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="F56" s="114">
+      <c r="F56" s="113">
         <v>3000</v>
       </c>
-      <c r="G56" s="114">
+      <c r="G56" s="113">
         <v>5000</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="45">
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="112" t="s">
         <v>725</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E57" s="113" t="s">
+      <c r="E57" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="F57" s="114">
+      <c r="F57" s="113">
         <v>1000</v>
       </c>
-      <c r="G57" s="114">
+      <c r="G57" s="113">
         <v>1000</v>
       </c>
     </row>
@@ -12247,7 +12335,7 @@
       <c r="D12" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="81" t="s">
         <v>563</v>
       </c>
       <c r="F12" s="43" t="s">
@@ -12294,7 +12382,7 @@
       <c r="D16" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="81" t="s">
         <v>564</v>
       </c>
       <c r="F16" s="46" t="s">
@@ -14551,7 +14639,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14578,24 +14665,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="119" t="s">
         <v>820</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="118" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -14606,10 +14693,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="42">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>640</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -14620,10 +14707,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="56">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>641</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -14634,10 +14721,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>642</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -14648,10 +14735,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>643</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -14662,16 +14749,16 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>823</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="119" t="s">
         <v>823</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="118" t="s">
         <v>824</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="119" t="s">
         <v>821</v>
       </c>
     </row>
@@ -14679,7 +14766,7 @@
       <c r="A8" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="117" t="s">
         <v>817</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -14858,16 +14945,16 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>825</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="119" t="s">
         <v>825</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="118" t="s">
         <v>826</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="119" t="s">
         <v>821</v>
       </c>
     </row>
@@ -14875,7 +14962,7 @@
       <c r="A22" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="117" t="s">
         <v>817</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -14962,7 +15049,7 @@
       <c r="B28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="95" t="s">
         <v>630</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -14984,16 +15071,16 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="119" t="s">
         <v>605</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="119" t="s">
         <v>827</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="118" t="s">
         <v>828</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="119" t="s">
         <v>821</v>
       </c>
     </row>
@@ -15001,7 +15088,7 @@
       <c r="A31" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="117" t="s">
         <v>817</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -15068,16 +15155,16 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="119" t="s">
         <v>622</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="119" t="s">
         <v>829</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="118" t="s">
         <v>830</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="119" t="s">
         <v>821</v>
       </c>
     </row>
@@ -15085,7 +15172,7 @@
       <c r="A37" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="117" t="s">
         <v>817</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -15208,16 +15295,16 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="119" t="s">
         <v>831</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="119" t="s">
         <v>831</v>
       </c>
-      <c r="C46" s="119" t="s">
+      <c r="C46" s="118" t="s">
         <v>832</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="119" t="s">
         <v>821</v>
       </c>
     </row>
@@ -15225,7 +15312,7 @@
       <c r="A47" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="117" t="s">
         <v>817</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -15239,10 +15326,10 @@
       <c r="A48" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="94" t="s">
         <v>626</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="95" t="s">
         <v>627</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -15253,10 +15340,10 @@
       <c r="A49" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="95" t="s">
         <v>629</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -15284,7 +15371,7 @@
       <c r="B51" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="94" t="s">
         <v>635</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -15295,10 +15382,10 @@
       <c r="A52" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="73" t="s">
         <v>521</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -15312,7 +15399,7 @@
       <c r="B53" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="73" t="s">
         <v>522</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -15326,7 +15413,7 @@
       <c r="B54" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="94" t="s">
         <v>523</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -15337,10 +15424,10 @@
       <c r="A55" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="94" t="s">
         <v>638</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="95" t="s">
         <v>639</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -15348,11 +15435,11 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="72"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="71"/>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="21"/>
@@ -15373,8 +15460,8 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15384,13 +15471,13 @@
     <col min="3" max="3" width="24" style="45" customWidth="1"/>
     <col min="4" max="4" width="87.28515625" style="49" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="33" style="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="90" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="45" customWidth="1"/>
     <col min="8" max="8" width="78.5703125" style="49" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" style="45" customWidth="1"/>
     <col min="10" max="10" width="33" style="45" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="84" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="83" customWidth="1"/>
     <col min="13" max="13" width="93.7109375" style="49" customWidth="1"/>
     <col min="14" max="14" width="60.5703125" style="49" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
@@ -15413,7 +15500,7 @@
       <c r="E1" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>412</v>
       </c>
       <c r="G1" s="53" t="s">
@@ -15428,10 +15515,10 @@
       <c r="J1" s="61" t="s">
         <v>413</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="84" t="s">
         <v>561</v>
       </c>
       <c r="M1" s="53" t="s">
@@ -15524,7 +15611,7 @@
       <c r="E7" s="45">
         <v>320</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="90">
         <v>6600</v>
       </c>
       <c r="G7" s="45" t="s">
@@ -15533,10 +15620,10 @@
       <c r="H7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="59">
-        <v>0.375</v>
-      </c>
-      <c r="J7" s="88" t="s">
+      <c r="I7" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="J7" s="87" t="s">
         <v>574</v>
       </c>
       <c r="M7" s="49" t="s">
@@ -15565,7 +15652,7 @@
       <c r="I8" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="J8" s="89"/>
+      <c r="J8" s="88"/>
       <c r="R8" s="45" t="s">
         <v>442</v>
       </c>
@@ -15592,7 +15679,7 @@
       <c r="H9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="88" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15615,7 +15702,7 @@
       <c r="H10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="88" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15632,7 +15719,7 @@
       <c r="E11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="90">
         <v>600</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -15641,13 +15728,13 @@
       <c r="H11" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="I11" s="62">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J11" s="89" t="s">
+      <c r="I11" s="59" t="s">
+        <v>859</v>
+      </c>
+      <c r="J11" s="88" t="s">
         <v>570</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="83" t="s">
         <v>477</v>
       </c>
     </row>
@@ -15664,7 +15751,7 @@
       <c r="E12" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="90">
         <v>500</v>
       </c>
       <c r="G12" s="45" t="s">
@@ -15673,16 +15760,16 @@
       <c r="H12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="59">
-        <v>0.4375</v>
-      </c>
-      <c r="J12" s="88" t="s">
+      <c r="I12" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="J12" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="82" t="s">
         <v>565</v>
       </c>
       <c r="M12" s="49" t="s">
@@ -15705,7 +15792,7 @@
       <c r="E13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="90" t="s">
         <v>414</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -15714,13 +15801,13 @@
       <c r="H13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="62">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="J13" s="88" t="s">
+      <c r="I13" s="59" t="s">
+        <v>861</v>
+      </c>
+      <c r="J13" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="84" t="s">
+      <c r="L13" s="83" t="s">
         <v>330</v>
       </c>
     </row>
@@ -15737,7 +15824,7 @@
       <c r="E14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="90">
         <v>300</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -15746,10 +15833,10 @@
       <c r="H14" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="I14" s="59">
-        <v>0.5625</v>
-      </c>
-      <c r="J14" s="89" t="s">
+      <c r="I14" s="59" t="s">
+        <v>862</v>
+      </c>
+      <c r="J14" s="88" t="s">
         <v>576</v>
       </c>
       <c r="M14" s="49" t="s">
@@ -15772,16 +15859,16 @@
       <c r="E15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="62" t="s">
         <v>375</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="59">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J15" s="89"/>
+      <c r="I15" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="J15" s="88"/>
       <c r="M15" s="49" t="s">
         <v>454</v>
       </c>
@@ -15802,13 +15889,13 @@
       <c r="E16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="62" t="s">
         <v>374</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="89"/>
+      <c r="J16" s="88"/>
       <c r="M16" s="49" t="s">
         <v>450</v>
       </c>
@@ -15830,9 +15917,9 @@
         <v>620</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="J17" s="89"/>
+        <v>864</v>
+      </c>
+      <c r="J17" s="88"/>
       <c r="R17" s="45" t="s">
         <v>445</v>
       </c>
@@ -15862,11 +15949,11 @@
       <c r="I18" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
       <c r="R18" s="45" t="s">
         <v>781</v>
       </c>
@@ -15890,10 +15977,10 @@
       <c r="H19" s="49" t="s">
         <v>783</v>
       </c>
-      <c r="I19" s="59">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="J19" s="89" t="s">
+      <c r="I19" s="137" t="s">
+        <v>865</v>
+      </c>
+      <c r="J19" s="88" t="s">
         <v>37</v>
       </c>
       <c r="M19" s="49" t="s">
@@ -15919,7 +16006,7 @@
       <c r="E20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="90">
         <v>600</v>
       </c>
       <c r="G20" s="45" t="s">
@@ -15928,10 +16015,10 @@
       <c r="H20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="59">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="J20" s="89" t="s">
+      <c r="I20" s="59" t="s">
+        <v>866</v>
+      </c>
+      <c r="J20" s="88" t="s">
         <v>571</v>
       </c>
     </row>
@@ -15948,7 +16035,7 @@
       <c r="E21" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="90">
         <v>400</v>
       </c>
       <c r="G21" s="45" t="s">
@@ -15960,13 +16047,13 @@
       <c r="I21" s="59">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J21" s="89" t="s">
+      <c r="J21" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="82" t="s">
         <v>566</v>
       </c>
       <c r="M21" s="49" t="s">
@@ -15998,7 +16085,7 @@
       <c r="I22" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J22" s="89"/>
+      <c r="J22" s="88"/>
       <c r="M22" s="49" t="s">
         <v>467</v>
       </c>
@@ -16022,7 +16109,7 @@
       <c r="I23" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="J23" s="89"/>
+      <c r="J23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="56">
       <c r="A24" s="51" t="s">
@@ -16040,29 +16127,29 @@
       <c r="E24" s="45">
         <v>1450</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="90">
         <v>1000</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="59">
-        <v>0.3125</v>
-      </c>
-      <c r="J24" s="89"/>
-      <c r="K24" s="117" t="s">
+      <c r="I24" s="59" t="s">
+        <v>867</v>
+      </c>
+      <c r="J24" s="88"/>
+      <c r="K24" s="116" t="s">
         <v>742</v>
       </c>
       <c r="M24" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="76" t="s">
         <v>524</v>
       </c>
       <c r="Q24" s="45">
@@ -16085,7 +16172,7 @@
       <c r="E25" s="45">
         <v>720</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="90" t="s">
         <v>411</v>
       </c>
       <c r="G25" s="45" t="s">
@@ -16094,17 +16181,17 @@
       <c r="H25" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="I25" s="59">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="J25" s="89" t="s">
+      <c r="I25" s="59" t="s">
+        <v>868</v>
+      </c>
+      <c r="J25" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="83"/>
-      <c r="M25" s="66" t="s">
+      <c r="L25" s="82"/>
+      <c r="M25" s="65" t="s">
         <v>471</v>
       </c>
     </row>
@@ -16127,14 +16214,14 @@
       <c r="H26" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="J26" s="89"/>
-      <c r="M26" s="71" t="s">
+      <c r="J26" s="88"/>
+      <c r="M26" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="O26" s="77" t="s">
+      <c r="O26" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="76" t="s">
         <v>547</v>
       </c>
     </row>
@@ -16151,7 +16238,7 @@
       <c r="E27" s="45">
         <v>200</v>
       </c>
-      <c r="F27" s="93">
+      <c r="F27" s="92">
         <v>1500</v>
       </c>
       <c r="G27" s="45" t="s">
@@ -16160,10 +16247,10 @@
       <c r="H27" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="I27" s="59">
-        <v>0.6875</v>
-      </c>
-      <c r="J27" s="90" t="s">
+      <c r="I27" s="59" t="s">
+        <v>869</v>
+      </c>
+      <c r="J27" s="89" t="s">
         <v>40</v>
       </c>
       <c r="R27" s="56"/>
@@ -16184,10 +16271,10 @@
       <c r="H28" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="I28" s="59">
-        <v>0.8125</v>
-      </c>
-      <c r="J28" s="90"/>
+      <c r="I28" s="59" t="s">
+        <v>870</v>
+      </c>
+      <c r="J28" s="89"/>
       <c r="R28" s="56" t="s">
         <v>401</v>
       </c>
@@ -16208,7 +16295,7 @@
       <c r="I29" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="J29" s="89"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="1:18" ht="28">
       <c r="A30" s="45" t="s">
@@ -16232,7 +16319,7 @@
       <c r="I30" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="J30" s="89"/>
+      <c r="J30" s="88"/>
       <c r="R30" s="45" t="s">
         <v>740</v>
       </c>
@@ -16247,13 +16334,13 @@
       <c r="D31" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="66" t="s">
         <v>474</v>
       </c>
       <c r="I31" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="J31" s="89"/>
+      <c r="J31" s="88"/>
       <c r="M31" s="49" t="s">
         <v>744</v>
       </c>
@@ -16280,10 +16367,10 @@
       <c r="H32" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="I32" s="59">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J32" s="89"/>
+      <c r="I32" s="59" t="s">
+        <v>871</v>
+      </c>
+      <c r="J32" s="88"/>
       <c r="M32" s="49" t="s">
         <v>469</v>
       </c>
@@ -16301,7 +16388,7 @@
       <c r="E33" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="91">
+      <c r="F33" s="90">
         <v>500</v>
       </c>
       <c r="G33" s="45" t="s">
@@ -16310,7 +16397,7 @@
       <c r="H33" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="89" t="s">
+      <c r="J33" s="88" t="s">
         <v>577</v>
       </c>
       <c r="M33" s="49" t="s">
@@ -16333,10 +16420,10 @@
       <c r="E34" s="45">
         <v>540</v>
       </c>
-      <c r="I34" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="J34" s="89"/>
+      <c r="I34" s="59" t="s">
+        <v>872</v>
+      </c>
+      <c r="J34" s="88"/>
     </row>
     <row r="35" spans="1:18" ht="154">
       <c r="B35" s="45" t="s">
@@ -16357,17 +16444,17 @@
       <c r="H35" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="J35" s="89"/>
+      <c r="J35" s="88"/>
       <c r="M35" s="49" t="s">
         <v>743</v>
       </c>
       <c r="N35" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="P35" s="77" t="s">
+      <c r="P35" s="76" t="s">
         <v>549</v>
       </c>
       <c r="Q35" s="45">
@@ -16390,7 +16477,7 @@
       <c r="I36" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="J36" s="89"/>
+      <c r="J36" s="88"/>
       <c r="M36" s="49" t="s">
         <v>479</v>
       </c>
@@ -16414,7 +16501,7 @@
       <c r="E37" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="F37" s="91">
+      <c r="F37" s="90">
         <v>2300</v>
       </c>
       <c r="G37" s="45" t="s">
@@ -16426,7 +16513,7 @@
       <c r="I37" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="J37" s="89" t="s">
+      <c r="J37" s="88" t="s">
         <v>578</v>
       </c>
     </row>
@@ -16443,7 +16530,7 @@
       <c r="E38" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="91" t="s">
+      <c r="F38" s="90" t="s">
         <v>420</v>
       </c>
       <c r="G38" s="45" t="s">
@@ -16452,7 +16539,7 @@
       <c r="H38" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="89" t="s">
+      <c r="J38" s="88" t="s">
         <v>419</v>
       </c>
     </row>
@@ -16469,7 +16556,7 @@
       <c r="E39" s="45" t="s">
         <v>776</v>
       </c>
-      <c r="F39" s="91" t="s">
+      <c r="F39" s="90" t="s">
         <v>422</v>
       </c>
       <c r="G39" s="45" t="s">
@@ -16481,7 +16568,7 @@
       <c r="I39" s="59">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J39" s="88" t="s">
+      <c r="J39" s="87" t="s">
         <v>579</v>
       </c>
     </row>
@@ -16498,7 +16585,7 @@
       <c r="E40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="91" t="s">
+      <c r="F40" s="90" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="45" t="s">
@@ -16507,7 +16594,7 @@
       <c r="H40" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="J40" s="89" t="s">
+      <c r="J40" s="88" t="s">
         <v>423</v>
       </c>
     </row>
@@ -16524,7 +16611,7 @@
       <c r="E41" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="91" t="s">
+      <c r="F41" s="90" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="45" t="s">
@@ -16533,10 +16620,10 @@
       <c r="H41" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="89" t="s">
+      <c r="J41" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="M41" s="67" t="s">
+      <c r="M41" s="66" t="s">
         <v>473</v>
       </c>
       <c r="R41" s="45" t="s">
@@ -16556,7 +16643,7 @@
       <c r="E42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="91" t="s">
+      <c r="F42" s="90" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="45" t="s">
@@ -16568,16 +16655,16 @@
       <c r="I42" s="59">
         <v>0.75</v>
       </c>
-      <c r="J42" s="89" t="s">
+      <c r="J42" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="K42" s="83" t="s">
+      <c r="K42" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="83" t="s">
+      <c r="L42" s="82" t="s">
         <v>772</v>
       </c>
-      <c r="M42" s="68"/>
+      <c r="M42" s="67"/>
     </row>
     <row r="43" spans="1:18">
       <c r="B43" s="45" t="s">
@@ -16646,16 +16733,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>517</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>478</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16663,13 +16750,13 @@
       <c r="A2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>514</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>520</v>
       </c>
     </row>
@@ -16677,13 +16764,13 @@
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>521</v>
       </c>
     </row>
@@ -16691,13 +16778,13 @@
       <c r="A4" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>511</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>522</v>
       </c>
     </row>
@@ -16705,13 +16792,13 @@
       <c r="A5" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>636</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>523</v>
       </c>
     </row>
@@ -16719,13 +16806,13 @@
       <c r="A6" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="69" t="s">
         <v>513</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="94" t="s">
         <v>637</v>
       </c>
     </row>
@@ -16733,10 +16820,10 @@
       <c r="A7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="69" t="s">
         <v>526</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -16747,10 +16834,10 @@
       <c r="A8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>527</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -16761,7 +16848,7 @@
       <c r="A9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -16775,10 +16862,10 @@
       <c r="A10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>529</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -16789,10 +16876,10 @@
       <c r="A11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>530</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="69" t="s">
         <v>530</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -16803,10 +16890,10 @@
       <c r="A12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>531</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -16817,7 +16904,7 @@
       <c r="A13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="69" t="s">
         <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -16831,7 +16918,7 @@
       <c r="A14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="69" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -16845,7 +16932,7 @@
       <c r="A15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -16859,7 +16946,7 @@
       <c r="A16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="69" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -16873,13 +16960,13 @@
       <c r="A17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>536</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="69" t="s">
         <v>536</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>537</v>
       </c>
     </row>
@@ -16887,10 +16974,10 @@
       <c r="A18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
         <v>538</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -16901,10 +16988,10 @@
       <c r="A19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="73" t="s">
         <v>539</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -16915,10 +17002,10 @@
       <c r="A20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="69" t="s">
         <v>540</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -16929,10 +17016,10 @@
       <c r="A21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>541</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -16943,7 +17030,7 @@
       <c r="A22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="1"/>
@@ -16955,7 +17042,7 @@
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="1"/>
@@ -16967,7 +17054,7 @@
       <c r="A24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>127</v>
       </c>
       <c r="C24" s="1"/>
@@ -16979,10 +17066,10 @@
       <c r="A25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="73" t="s">
         <v>543</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -16993,7 +17080,7 @@
       <c r="A26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>132</v>
       </c>
       <c r="C26" s="1"/>
@@ -17005,7 +17092,7 @@
       <c r="A27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="1"/>
@@ -17017,10 +17104,10 @@
       <c r="A28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="73" t="s">
         <v>544</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -17031,7 +17118,7 @@
       <c r="A29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="69" t="s">
         <v>196</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -17068,7 +17155,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>337</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -17183,7 +17270,7 @@
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -17508,7 +17595,7 @@
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C32" s="96" t="s">
         <v>628</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -17516,13 +17603,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="98" t="s">
         <v>632</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="99" t="s">
         <v>633</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -17582,7 +17669,7 @@
       <c r="A3" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="121" t="s">
         <v>267</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -17619,7 +17706,7 @@
       <c r="B6" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="93" t="s">
         <v>625</v>
       </c>
       <c r="D6" s="39"/>
@@ -17839,7 +17926,7 @@
       <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" ht="14">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="127" t="s">
         <v>846</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -17850,51 +17937,51 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="40" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="124" t="s">
+      <c r="A28" s="127"/>
+      <c r="B28" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="126" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
     </row>
     <row r="30" spans="1:6" ht="41" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
     </row>
     <row r="31" spans="1:6" ht="41" customHeight="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:6" ht="40" customHeight="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="126"/>
     </row>
     <row r="33" spans="1:8" ht="29" customHeight="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
     </row>
     <row r="34" spans="1:8" ht="40" customHeight="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="125"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="154">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="122" t="s">
         <v>847</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="120" t="s">
         <v>299</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -17944,7 +18031,7 @@
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="17">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -17956,7 +18043,7 @@
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="17">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -17972,7 +18059,7 @@
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="26">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -17986,7 +18073,7 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="126">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -17997,7 +18084,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="56">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -18008,10 +18095,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="86" t="s">
         <v>569</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="85" t="s">
         <v>567</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -18019,7 +18106,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="57">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -18030,7 +18117,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -18041,7 +18128,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="43">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -18052,7 +18139,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="17">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -18064,7 +18151,7 @@
       <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="17">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -18076,13 +18163,13 @@
       <c r="D50" s="39"/>
     </row>
     <row r="51" spans="1:4" ht="14">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="86" t="s">
         <v>569</v>
       </c>
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:4" ht="17">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -18093,7 +18180,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="43">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -18104,7 +18191,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="17">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -18116,7 +18203,7 @@
       <c r="D54" s="39"/>
     </row>
     <row r="55" spans="1:4" ht="17">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -18127,7 +18214,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="71">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -18138,7 +18225,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="29">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="86" t="s">
         <v>569</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -18185,7 +18272,7 @@
       <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>786</v>
       </c>
       <c r="E1" s="43"/>
@@ -18304,10 +18391,10 @@
       <c r="B12" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="100" t="s">
         <v>658</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="17">
@@ -18342,7 +18429,7 @@
       <c r="C15" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="D15" s="78"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="29">
@@ -18551,7 +18638,7 @@
       <c r="A4" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>837</v>
       </c>
     </row>

--- a/data/关西9日自由行.xlsx
+++ b/data/关西9日自由行.xlsx
@@ -26,7 +26,7 @@
     <sheet name="temp-del" sheetId="8" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">schedule!$A$1:$R$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">schedule!$A$1:$S$44</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="876">
   <si>
     <t>通天阁+新世界商店街</t>
     <phoneticPr fontId="4"/>
@@ -8939,6 +8939,15 @@
   </si>
   <si>
     <t xml:space="preserve">12:00以前 </t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>出发</t>
+  </si>
+  <si>
+    <t>返回</t>
   </si>
 </sst>
 </file>
@@ -9938,6 +9947,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9973,9 +9985,6 @@
     </xf>
     <xf numFmtId="0" fontId="71" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -11130,10 +11139,10 @@
         <v>729</v>
       </c>
       <c r="C3" s="110"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="129" t="s">
         <v>664</v>
       </c>
-      <c r="E3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -11216,11 +11225,11 @@
         <v>672</v>
       </c>
       <c r="C10" s="114"/>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="130" t="s">
         <v>731</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="B11" s="114" t="s">
@@ -11578,19 +11587,19 @@
       <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="133" t="s">
         <v>695</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="135" t="s">
         <v>696</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="137"/>
     </row>
     <row r="36" spans="1:8" ht="45">
-      <c r="B36" s="133"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="110" t="s">
         <v>697</v>
       </c>
@@ -15457,1257 +15466,1288 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="45" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="33" style="90" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="45" customWidth="1"/>
-    <col min="8" max="8" width="78.5703125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="33" style="45" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="83" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="83" customWidth="1"/>
-    <col min="13" max="13" width="93.7109375" style="49" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="45" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="45" customWidth="1"/>
-    <col min="19" max="16384" width="10.28515625" style="45"/>
+    <col min="2" max="2" width="7.140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="45" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="33" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="45" customWidth="1"/>
+    <col min="9" max="9" width="78.5703125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33" style="45" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="83" customWidth="1"/>
+    <col min="14" max="14" width="93.7109375" style="49" customWidth="1"/>
+    <col min="15" max="15" width="60.5703125" style="49" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="45" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="45" customWidth="1"/>
+    <col min="20" max="16384" width="10.28515625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="49" customFormat="1" ht="41.25" customHeight="1">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:19" s="49" customFormat="1" ht="41.25" customHeight="1">
+      <c r="B1" s="49" t="s">
+        <v>873</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="D1" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="E1" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>412</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="I1" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="61" t="s">
         <v>413</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="L1" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="M1" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="R1" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="S1" s="61" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="45" t="s">
         <v>337</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="1:19" ht="42">
+      <c r="C3" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D3" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="49" t="s">
         <v>778</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="S3" s="45" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="1:19">
+      <c r="C4" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="E4" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="E4" s="45">
+      <c r="F4" s="45">
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="1:19">
+      <c r="C5" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:19">
+      <c r="C6" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="45" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="56">
+    <row r="7" spans="1:19" ht="56">
       <c r="A7" s="45" t="s">
         <v>347</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="D7" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="E7" s="45">
+      <c r="F7" s="45">
         <v>320</v>
       </c>
-      <c r="F7" s="90">
+      <c r="G7" s="90">
         <v>6600</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="H7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="I7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="J7" s="59" t="s">
         <v>858</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="K7" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="N7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="O7" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="S7" s="45" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30">
-      <c r="B8" s="45" t="s">
+    <row r="8" spans="1:19" ht="30">
+      <c r="C8" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="D8" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="E8" s="49" t="s">
         <v>747</v>
       </c>
-      <c r="E8" s="45">
+      <c r="F8" s="45">
         <v>780</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="J8" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="R8" s="45" t="s">
+      <c r="K8" s="88"/>
+      <c r="S8" s="45" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="45" t="s">
         <v>351</v>
       </c>
       <c r="B9" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="D9" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="E9" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="H9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="I9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="88" t="s">
+      <c r="K9" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="45" t="s">
+    <row r="10" spans="1:19">
+      <c r="C10" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="D10" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="E10" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="F10" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="H10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="I10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="88" t="s">
+      <c r="K10" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="28">
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="1:19" ht="28">
+      <c r="C11" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="E11" s="49" t="s">
         <v>748</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="90">
+      <c r="G11" s="90">
         <v>600</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="H11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="I11" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="J11" s="59" t="s">
         <v>859</v>
       </c>
-      <c r="J11" s="88" t="s">
+      <c r="K11" s="88" t="s">
         <v>570</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="L11" s="83" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="56">
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="1:19" ht="56">
+      <c r="C12" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="D12" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="E12" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="F12" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="90">
+      <c r="G12" s="90">
         <v>500</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="I12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="J12" s="59" t="s">
         <v>860</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="K12" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="L12" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="M12" s="82" t="s">
         <v>565</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="N12" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="S12" s="45" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="28">
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="1:19" ht="28">
+      <c r="C13" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="E13" s="49" t="s">
         <v>750</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="F13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="G13" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="H13" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="I13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="J13" s="59" t="s">
         <v>861</v>
       </c>
-      <c r="J13" s="87" t="s">
+      <c r="K13" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="M13" s="83" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="70">
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="1:19" ht="70">
+      <c r="C14" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="D14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="E14" s="49" t="s">
         <v>751</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="F14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="90">
+      <c r="G14" s="90">
         <v>300</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="I14" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="J14" s="59" t="s">
         <v>862</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="K14" s="88" t="s">
         <v>576</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="N14" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="O14" s="49" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="42">
-      <c r="B15" s="45" t="s">
+    <row r="15" spans="1:19" ht="42">
+      <c r="C15" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="D15" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="E15" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="F15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="H15" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="I15" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="J15" s="59" t="s">
         <v>863</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="M15" s="49" t="s">
+      <c r="K15" s="88"/>
+      <c r="N15" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="N15" s="49" t="s">
+      <c r="O15" s="49" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28">
-      <c r="B16" s="45" t="s">
+    <row r="16" spans="1:19" ht="28">
+      <c r="C16" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="E16" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="F16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="H16" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="I16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="M16" s="49" t="s">
+      <c r="K16" s="88"/>
+      <c r="N16" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="N16" s="49" t="s">
+      <c r="O16" s="49" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="45" t="s">
+    <row r="17" spans="1:19">
+      <c r="C17" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="D17" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="E17" s="45">
+      <c r="F17" s="45">
         <v>620</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="J17" s="59" t="s">
         <v>864</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="R17" s="45" t="s">
+      <c r="K17" s="88"/>
+      <c r="S17" s="45" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="70">
+    <row r="18" spans="1:19" ht="70">
       <c r="A18" s="51" t="s">
         <v>373</v>
       </c>
       <c r="B18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="D18" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="E18" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="F18" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="H18" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="I18" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="J18" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="J18" s="88" t="s">
+      <c r="K18" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="82"/>
       <c r="L18" s="82"/>
-      <c r="R18" s="45" t="s">
+      <c r="M18" s="82"/>
+      <c r="S18" s="45" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="56">
-      <c r="B19" s="45" t="s">
+    <row r="19" spans="1:19" ht="56">
+      <c r="C19" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>438</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="E19" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="F19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="H19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="I19" s="49" t="s">
         <v>783</v>
       </c>
-      <c r="I19" s="137" t="s">
+      <c r="J19" s="125" t="s">
         <v>865</v>
       </c>
-      <c r="J19" s="88" t="s">
+      <c r="K19" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="N19" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="O19" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="S19" s="45" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="28">
-      <c r="B20" s="45" t="s">
+    <row r="20" spans="1:19" ht="28">
+      <c r="C20" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="D20" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="E20" s="49" t="s">
         <v>754</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="F20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="90">
+      <c r="G20" s="90">
         <v>600</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="H20" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="I20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="J20" s="59" t="s">
         <v>866</v>
       </c>
-      <c r="J20" s="88" t="s">
+      <c r="K20" s="88" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="28">
-      <c r="B21" s="45" t="s">
+    <row r="21" spans="1:19" ht="28">
+      <c r="C21" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="D21" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="E21" s="49" t="s">
         <v>755</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="F21" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="90">
+      <c r="G21" s="90">
         <v>400</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="H21" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="I21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="59">
+      <c r="J21" s="59">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J21" s="88" t="s">
+      <c r="K21" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="L21" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="M21" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="N21" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="S21" s="45" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="70">
-      <c r="B22" s="45" t="s">
+    <row r="22" spans="1:19" ht="70">
+      <c r="C22" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="D22" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="E22" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="F22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="H22" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="I22" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="I22" s="59">
+      <c r="J22" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J22" s="88"/>
-      <c r="M22" s="49" t="s">
+      <c r="K22" s="88"/>
+      <c r="N22" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="N22" s="49" t="s">
+      <c r="O22" s="49" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="30">
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="1:19" ht="30">
+      <c r="C23" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="E23" s="49" t="s">
         <v>757</v>
       </c>
-      <c r="E23" s="45">
+      <c r="F23" s="45">
         <v>810</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="J23" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="J23" s="88"/>
-    </row>
-    <row r="24" spans="1:18" ht="56">
+      <c r="K23" s="88"/>
+    </row>
+    <row r="24" spans="1:19" ht="56">
       <c r="A24" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="E24" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="E24" s="45">
+      <c r="F24" s="45">
         <v>1450</v>
       </c>
-      <c r="F24" s="90">
+      <c r="G24" s="90">
         <v>1000</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="I24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="J24" s="59" t="s">
         <v>867</v>
       </c>
-      <c r="J24" s="88"/>
-      <c r="K24" s="116" t="s">
+      <c r="K24" s="88"/>
+      <c r="L24" s="116" t="s">
         <v>742</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="N24" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="N24" s="66" t="s">
+      <c r="O24" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="O24" s="76" t="s">
+      <c r="P24" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="P24" s="76" t="s">
+      <c r="Q24" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="R24" s="45">
         <v>1</v>
       </c>
-      <c r="R24" s="45" t="s">
+      <c r="S24" s="45" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="56">
-      <c r="B25" s="45" t="s">
+    <row r="25" spans="1:19" ht="56">
+      <c r="C25" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="D25" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="E25" s="49" t="s">
         <v>759</v>
       </c>
-      <c r="E25" s="45">
+      <c r="F25" s="45">
         <v>720</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="G25" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="H25" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="I25" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="J25" s="59" t="s">
         <v>868</v>
       </c>
-      <c r="J25" s="88" t="s">
+      <c r="K25" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="82" t="s">
+      <c r="L25" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="65" t="s">
+      <c r="M25" s="82"/>
+      <c r="N25" s="65" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="1:19" ht="28">
+      <c r="C26" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="D26" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="E26" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="F26" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="H26" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="I26" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="J26" s="88"/>
-      <c r="M26" s="70" t="s">
+      <c r="K26" s="88"/>
+      <c r="N26" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="O26" s="76" t="s">
+      <c r="P26" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="P26" s="76" t="s">
+      <c r="Q26" s="76" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="56">
-      <c r="B27" s="56" t="s">
+    <row r="27" spans="1:19" ht="56">
+      <c r="C27" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="D27" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="E27" s="49" t="s">
         <v>760</v>
       </c>
-      <c r="E27" s="45">
+      <c r="F27" s="45">
         <v>200</v>
       </c>
-      <c r="F27" s="92">
+      <c r="G27" s="92">
         <v>1500</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="H27" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="I27" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="J27" s="59" t="s">
         <v>869</v>
       </c>
-      <c r="J27" s="89" t="s">
+      <c r="K27" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="56"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="56" t="s">
+      <c r="S27" s="56"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="C28" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="D28" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="E28" s="49" t="s">
         <v>761</v>
       </c>
-      <c r="E28" s="45">
+      <c r="F28" s="45">
         <v>200</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="I28" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="J28" s="59" t="s">
         <v>870</v>
       </c>
-      <c r="J28" s="89"/>
-      <c r="R28" s="56" t="s">
+      <c r="K28" s="89"/>
+      <c r="S28" s="56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="B29" s="56" t="s">
+    <row r="29" spans="1:19">
+      <c r="C29" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="D29" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="E29" s="49" t="s">
         <v>762</v>
       </c>
-      <c r="E29" s="45">
+      <c r="F29" s="45">
         <v>400</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="J29" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="J29" s="88"/>
-    </row>
-    <row r="30" spans="1:18" ht="28">
+      <c r="K29" s="88"/>
+    </row>
+    <row r="30" spans="1:19" ht="28">
       <c r="A30" s="45" t="s">
         <v>377</v>
       </c>
       <c r="B30" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="E30" s="49" t="s">
         <v>763</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="I30" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="J30" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="J30" s="88"/>
-      <c r="R30" s="45" t="s">
+      <c r="K30" s="88"/>
+      <c r="S30" s="45" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="42">
-      <c r="B31" s="56" t="s">
+    <row r="31" spans="1:19" ht="42">
+      <c r="C31" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="D31" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="E31" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="I31" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="J31" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="J31" s="88"/>
-      <c r="M31" s="49" t="s">
+      <c r="K31" s="88"/>
+      <c r="N31" s="49" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="42">
+    <row r="32" spans="1:19" ht="42">
       <c r="A32" s="45" t="s">
         <v>379</v>
       </c>
       <c r="B32" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="D32" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="E32" s="49" t="s">
         <v>765</v>
       </c>
-      <c r="E32" s="45">
+      <c r="F32" s="45">
         <v>540</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="H32" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="I32" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="J32" s="59" t="s">
         <v>871</v>
       </c>
-      <c r="J32" s="88"/>
-      <c r="M32" s="49" t="s">
+      <c r="K32" s="88"/>
+      <c r="N32" s="49" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="28">
-      <c r="B33" s="45" t="s">
+    <row r="33" spans="1:19" ht="28">
+      <c r="C33" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="D33" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="E33" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="F33" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="90">
+      <c r="G33" s="90">
         <v>500</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="H33" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="I33" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="88" t="s">
+      <c r="K33" s="88" t="s">
         <v>577</v>
       </c>
-      <c r="M33" s="49" t="s">
+      <c r="N33" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="N33" s="49" t="s">
+      <c r="O33" s="49" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="28">
-      <c r="B34" s="45" t="s">
+    <row r="34" spans="1:19" ht="28">
+      <c r="C34" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="D34" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="E34" s="49" t="s">
         <v>766</v>
       </c>
-      <c r="E34" s="45">
+      <c r="F34" s="45">
         <v>540</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="J34" s="59" t="s">
         <v>872</v>
       </c>
-      <c r="J34" s="88"/>
-    </row>
-    <row r="35" spans="1:18" ht="154">
-      <c r="B35" s="45" t="s">
+      <c r="K34" s="88"/>
+    </row>
+    <row r="35" spans="1:19" ht="154">
+      <c r="C35" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="D35" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="E35" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="F35" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="H35" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="I35" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="J35" s="88"/>
-      <c r="M35" s="49" t="s">
+      <c r="K35" s="88"/>
+      <c r="N35" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="N35" s="49" t="s">
+      <c r="O35" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="O35" s="76" t="s">
+      <c r="P35" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="P35" s="76" t="s">
+      <c r="Q35" s="76" t="s">
         <v>549</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="R35" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="70">
-      <c r="B36" s="45" t="s">
+    <row r="36" spans="1:19" ht="70">
+      <c r="C36" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="E36" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="E36" s="45">
+      <c r="F36" s="45">
         <v>200</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="J36" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="J36" s="88"/>
-      <c r="M36" s="49" t="s">
+      <c r="K36" s="88"/>
+      <c r="N36" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="N36" s="49" t="s">
+      <c r="O36" s="49" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="28">
+    <row r="37" spans="1:19" ht="28">
       <c r="A37" s="45" t="s">
         <v>380</v>
       </c>
       <c r="B37" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="D37" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="E37" s="49" t="s">
         <v>767</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="F37" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="F37" s="90">
+      <c r="G37" s="90">
         <v>2300</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="H37" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="H37" s="49" t="s">
+      <c r="I37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="J37" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="J37" s="88" t="s">
+      <c r="K37" s="88" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="70">
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="1:19" ht="70">
+      <c r="C38" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="D38" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="E38" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="F38" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="90" t="s">
+      <c r="G38" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="H38" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="I38" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="88" t="s">
+      <c r="K38" s="88" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="28">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="1:19" ht="28">
+      <c r="C39" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="D39" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="E39" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="F39" s="45" t="s">
         <v>776</v>
       </c>
-      <c r="F39" s="90" t="s">
+      <c r="G39" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="H39" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="I39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="59">
+      <c r="J39" s="59">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J39" s="87" t="s">
+      <c r="K39" s="87" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="28">
-      <c r="B40" s="45" t="s">
+    <row r="40" spans="1:19" ht="28">
+      <c r="C40" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="E40" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="F40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="90" t="s">
+      <c r="G40" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="H40" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="I40" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="J40" s="88" t="s">
+      <c r="K40" s="88" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="28">
-      <c r="B41" s="45" t="s">
+    <row r="41" spans="1:19" ht="28">
+      <c r="C41" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="D41" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="E41" s="49" t="s">
         <v>769</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="F41" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="90" t="s">
+      <c r="G41" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="H41" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="I41" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="88" t="s">
+      <c r="K41" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="M41" s="66" t="s">
+      <c r="N41" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="R41" s="45" t="s">
+      <c r="S41" s="45" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="28">
-      <c r="B42" s="45" t="s">
+    <row r="42" spans="1:19" ht="28">
+      <c r="C42" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="D42" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="E42" s="49" t="s">
         <v>771</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="F42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="90" t="s">
+      <c r="G42" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="H42" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="I42" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="I42" s="59">
+      <c r="J42" s="59">
         <v>0.75</v>
       </c>
-      <c r="J42" s="88" t="s">
+      <c r="K42" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="L42" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="82" t="s">
+      <c r="M42" s="82" t="s">
         <v>772</v>
       </c>
-      <c r="M42" s="67"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="B43" s="45" t="s">
+      <c r="N42" s="67"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="C43" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="D43" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="E43" s="49" t="s">
         <v>770</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="F43" s="45" t="s">
         <v>776</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="J43" s="45" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19">
       <c r="A44" s="45" t="s">
         <v>381</v>
       </c>
       <c r="B44" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="E44" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="E44" s="45">
+      <c r="F44" s="45">
         <v>890</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R44"/>
+  <autoFilter ref="A1:S44"/>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="K42" r:id="rId1"/>
-    <hyperlink ref="K25" r:id="rId2"/>
-    <hyperlink ref="K21" r:id="rId3"/>
-    <hyperlink ref="K12" r:id="rId4"/>
+    <hyperlink ref="L42" r:id="rId1"/>
+    <hyperlink ref="L25" r:id="rId2"/>
+    <hyperlink ref="L21" r:id="rId3"/>
+    <hyperlink ref="L12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.70000004768371582" right="0.70000004768371582" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <extLst>
@@ -17144,7 +17184,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -17926,7 +17966,7 @@
       <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" ht="14">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="128" t="s">
         <v>846</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -17937,44 +17977,44 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="40" customHeight="1">
-      <c r="A28" s="127"/>
-      <c r="B28" s="125" t="s">
+      <c r="A28" s="128"/>
+      <c r="B28" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="127" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29" customHeight="1">
-      <c r="A29" s="127"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="127"/>
     </row>
     <row r="30" spans="1:6" ht="41" customHeight="1">
-      <c r="A30" s="127"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
     </row>
     <row r="31" spans="1:6" ht="41" customHeight="1">
-      <c r="A31" s="127"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="126"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:6" ht="40" customHeight="1">
-      <c r="A32" s="127"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="126"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
     </row>
     <row r="33" spans="1:8" ht="29" customHeight="1">
-      <c r="A33" s="127"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="126"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="127"/>
     </row>
     <row r="34" spans="1:8" ht="40" customHeight="1">
-      <c r="A34" s="127"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="154">
